--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_06_13.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_06_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA26793-4FDD-4B62-85C7-D0C03C7FC39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B948CBC5-9047-43FF-B24A-A7268A9178D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="455">
   <si>
     <t>x:</t>
   </si>
@@ -5401,6 +5401,80 @@
   <si>
     <t xml:space="preserve">Mit Formel berechnet </t>
   </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5413,7 +5487,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm"/>
     <numFmt numFmtId="168" formatCode="ddd\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5947,8 +6021,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6048,6 +6137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6562,7 +6657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7161,38 +7256,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7218,29 +7304,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7253,6 +7348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10010,13 +10108,13 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4264888743087578</c:v>
+                  <c:v>13.92648887430876</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.4264888743087578</c:v>
+                  <c:v>-13.92648887430876</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -10034,13 +10132,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4264888743087578</c:v>
+                  <c:v>13.92648887430876</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.4264888743087578</c:v>
+                  <c:v>-13.92648887430876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10153,7 +10251,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10177,6 +10275,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8DB1-43FD-8953-C7BECB15F8F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vektor!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V1 + V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vektor!$L$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.4278760968653934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vektor!$N$17:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.660444431189781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E56E-4192-A1FE-08837BE60802}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23170,8 +23332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9693286" y="9769230"/>
-          <a:ext cx="449416" cy="5058020"/>
+          <a:off x="9693286" y="9951793"/>
+          <a:ext cx="452591" cy="5145332"/>
           <a:chOff x="8934450" y="3259336"/>
           <a:chExt cx="459441" cy="1970228"/>
         </a:xfrm>
@@ -23386,8 +23548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10264771" y="4451349"/>
-          <a:ext cx="455766" cy="5299074"/>
+          <a:off x="10261596" y="4538662"/>
+          <a:ext cx="455766" cy="5394324"/>
           <a:chOff x="8934450" y="3310662"/>
           <a:chExt cx="463177" cy="2140980"/>
         </a:xfrm>
@@ -23601,8 +23763,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9315450" y="4443330"/>
-          <a:ext cx="455766" cy="5313445"/>
+          <a:off x="9315450" y="4527468"/>
+          <a:ext cx="455766" cy="5408695"/>
           <a:chOff x="8934450" y="3378101"/>
           <a:chExt cx="455766" cy="2073541"/>
         </a:xfrm>
@@ -23816,8 +23978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7391400" y="4424508"/>
-          <a:ext cx="455766" cy="10395415"/>
+          <a:off x="7391400" y="4508646"/>
+          <a:ext cx="455766" cy="10577977"/>
           <a:chOff x="8934450" y="1116547"/>
           <a:chExt cx="455766" cy="4229676"/>
         </a:xfrm>
@@ -24031,8 +24193,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8162925" y="4419600"/>
-          <a:ext cx="455766" cy="10388599"/>
+          <a:off x="8159750" y="4510088"/>
+          <a:ext cx="462116" cy="10567986"/>
           <a:chOff x="8934450" y="1108047"/>
           <a:chExt cx="455766" cy="4343595"/>
         </a:xfrm>
@@ -24246,8 +24408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8181987" y="926646"/>
-          <a:ext cx="455766" cy="3496127"/>
+          <a:off x="8178812" y="926646"/>
+          <a:ext cx="462116" cy="3586615"/>
           <a:chOff x="8934450" y="3281431"/>
           <a:chExt cx="448531" cy="2170211"/>
         </a:xfrm>
@@ -24461,8 +24623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3600450" y="933450"/>
-          <a:ext cx="455766" cy="13893800"/>
+          <a:off x="3600450" y="930275"/>
+          <a:ext cx="455766" cy="14166850"/>
           <a:chOff x="8934450" y="1094414"/>
           <a:chExt cx="455766" cy="6412628"/>
         </a:xfrm>
@@ -24676,8 +24838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4371975" y="930275"/>
-          <a:ext cx="455766" cy="6727824"/>
+          <a:off x="4368800" y="933450"/>
+          <a:ext cx="462116" cy="6867524"/>
           <a:chOff x="8934450" y="1892573"/>
           <a:chExt cx="455766" cy="3559069"/>
         </a:xfrm>
@@ -24891,8 +25053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4371986" y="7632699"/>
-          <a:ext cx="455766" cy="7194550"/>
+          <a:off x="4368811" y="7772399"/>
+          <a:ext cx="462116" cy="7324725"/>
           <a:chOff x="8934450" y="3254331"/>
           <a:chExt cx="448588" cy="2885570"/>
         </a:xfrm>
@@ -25106,8 +25268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1298074" y="914400"/>
-          <a:ext cx="497316" cy="5298622"/>
+          <a:off x="1298074" y="911225"/>
+          <a:ext cx="500491" cy="5420860"/>
           <a:chOff x="8911345" y="3254331"/>
           <a:chExt cx="497612" cy="3010540"/>
         </a:xfrm>
@@ -25899,8 +26061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9658649" y="22940561"/>
-          <a:ext cx="455766" cy="1892145"/>
+          <a:off x="9658649" y="23151699"/>
+          <a:ext cx="455766" cy="1876270"/>
           <a:chOff x="8934450" y="3785005"/>
           <a:chExt cx="459441" cy="1387868"/>
         </a:xfrm>
@@ -26078,8 +26240,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9710414" y="18759631"/>
-          <a:ext cx="488142" cy="4180930"/>
+          <a:off x="9707239" y="19005694"/>
+          <a:ext cx="494492" cy="4146005"/>
           <a:chOff x="8959850" y="3254331"/>
           <a:chExt cx="481583" cy="2549202"/>
         </a:xfrm>
@@ -26294,8 +26456,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8197270" y="18737407"/>
-          <a:ext cx="468013" cy="6194301"/>
+          <a:off x="8200445" y="18980295"/>
+          <a:ext cx="464838" cy="6149851"/>
           <a:chOff x="8957189" y="1108047"/>
           <a:chExt cx="467002" cy="4074160"/>
         </a:xfrm>
@@ -26510,8 +26672,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8185131" y="16325396"/>
-          <a:ext cx="455766" cy="2972252"/>
+          <a:off x="8181956" y="16619084"/>
+          <a:ext cx="455766" cy="2919864"/>
           <a:chOff x="8934450" y="3281431"/>
           <a:chExt cx="448997" cy="2170211"/>
         </a:xfrm>
@@ -26725,8 +26887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3600450" y="16332200"/>
-          <a:ext cx="455766" cy="8604952"/>
+          <a:off x="3600450" y="16622713"/>
+          <a:ext cx="455766" cy="8516052"/>
           <a:chOff x="8934450" y="1094414"/>
           <a:chExt cx="455766" cy="5820587"/>
         </a:xfrm>
@@ -26941,8 +27103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4374688" y="16360775"/>
-          <a:ext cx="499981" cy="8581821"/>
+          <a:off x="4371513" y="16654463"/>
+          <a:ext cx="503156" cy="8489746"/>
           <a:chOff x="8948330" y="1114406"/>
           <a:chExt cx="498901" cy="5842881"/>
         </a:xfrm>
@@ -27158,8 +27320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1270148" y="16309975"/>
-          <a:ext cx="559400" cy="4428672"/>
+          <a:off x="1266973" y="16606838"/>
+          <a:ext cx="562575" cy="4346122"/>
           <a:chOff x="8879803" y="3254331"/>
           <a:chExt cx="563543" cy="3010540"/>
         </a:xfrm>
@@ -28492,8 +28654,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9631671" y="29372377"/>
-          <a:ext cx="474363" cy="2521171"/>
+          <a:off x="9628496" y="29570815"/>
+          <a:ext cx="474363" cy="2502121"/>
           <a:chOff x="8920180" y="3499704"/>
           <a:chExt cx="480926" cy="1951938"/>
         </a:xfrm>
@@ -28708,8 +28870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8141693" y="29423633"/>
-          <a:ext cx="461663" cy="2383736"/>
+          <a:off x="8144868" y="29618896"/>
+          <a:ext cx="455313" cy="2371036"/>
           <a:chOff x="9527870" y="3599470"/>
           <a:chExt cx="467002" cy="1797691"/>
         </a:xfrm>
@@ -28924,8 +29086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4529508" y="26481521"/>
-          <a:ext cx="468013" cy="5301393"/>
+          <a:off x="4526333" y="26683134"/>
+          <a:ext cx="474363" cy="5279168"/>
           <a:chOff x="8941283" y="3264625"/>
           <a:chExt cx="469428" cy="4311071"/>
         </a:xfrm>
@@ -29141,8 +29303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1287997" y="26474732"/>
-          <a:ext cx="468014" cy="4015922"/>
+          <a:off x="1284822" y="26673170"/>
+          <a:ext cx="474364" cy="4000047"/>
           <a:chOff x="8945774" y="3254331"/>
           <a:chExt cx="471479" cy="3010540"/>
         </a:xfrm>
@@ -30058,7 +30220,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8140907" y="26523266"/>
+          <a:off x="8144082" y="26724879"/>
           <a:ext cx="455766" cy="3062633"/>
           <a:chOff x="8934450" y="3237320"/>
           <a:chExt cx="448997" cy="2214322"/>
@@ -30274,8 +30436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8530640" y="36346840"/>
-          <a:ext cx="405432" cy="3473555"/>
+          <a:off x="8527465" y="36492890"/>
+          <a:ext cx="408607" cy="3478318"/>
           <a:chOff x="8934017" y="3167408"/>
           <a:chExt cx="408386" cy="2284234"/>
         </a:xfrm>
@@ -30490,8 +30652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4735983" y="33710016"/>
-          <a:ext cx="399082" cy="6189890"/>
+          <a:off x="4732808" y="33895754"/>
+          <a:ext cx="399082" cy="6154965"/>
           <a:chOff x="8947344" y="3293238"/>
           <a:chExt cx="410723" cy="3638269"/>
         </a:xfrm>
@@ -30707,8 +30869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1707832" y="33676771"/>
-          <a:ext cx="411176" cy="5031922"/>
+          <a:off x="1704657" y="33856159"/>
+          <a:ext cx="417526" cy="5000172"/>
           <a:chOff x="8959850" y="3254331"/>
           <a:chExt cx="416653" cy="3010540"/>
         </a:xfrm>
@@ -31623,8 +31785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8509874" y="33739044"/>
-          <a:ext cx="406692" cy="2605477"/>
+          <a:off x="8506699" y="33921607"/>
+          <a:ext cx="409867" cy="2568964"/>
           <a:chOff x="8924231" y="3237320"/>
           <a:chExt cx="403919" cy="1617255"/>
         </a:xfrm>
@@ -31802,8 +31964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5948080" y="41809101"/>
-          <a:ext cx="476894" cy="5269800"/>
+          <a:off x="5951255" y="42059926"/>
+          <a:ext cx="476894" cy="5260275"/>
           <a:chOff x="8959850" y="3318320"/>
           <a:chExt cx="465916" cy="4346414"/>
         </a:xfrm>
@@ -32018,8 +32180,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4744893" y="41806264"/>
-          <a:ext cx="420052" cy="5237712"/>
+          <a:off x="4744893" y="42063439"/>
+          <a:ext cx="420052" cy="5215487"/>
           <a:chOff x="8962537" y="3292557"/>
           <a:chExt cx="411552" cy="3962878"/>
         </a:xfrm>
@@ -32234,8 +32396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1707822" y="41773021"/>
-          <a:ext cx="426708" cy="4349297"/>
+          <a:off x="1704647" y="42023846"/>
+          <a:ext cx="429883" cy="4333422"/>
           <a:chOff x="8959850" y="3254331"/>
           <a:chExt cx="439393" cy="3010540"/>
         </a:xfrm>
@@ -33229,8 +33391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5875573" y="50232829"/>
-          <a:ext cx="486977" cy="5551921"/>
+          <a:off x="5878748" y="50474129"/>
+          <a:ext cx="483802" cy="5532871"/>
           <a:chOff x="8959850" y="2289804"/>
           <a:chExt cx="495429" cy="5374930"/>
         </a:xfrm>
@@ -33445,8 +33607,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1688181" y="50203100"/>
-          <a:ext cx="473739" cy="4092122"/>
+          <a:off x="1685006" y="50441225"/>
+          <a:ext cx="480089" cy="4088947"/>
           <a:chOff x="8939955" y="3254331"/>
           <a:chExt cx="487058" cy="3010540"/>
         </a:xfrm>
@@ -34289,8 +34451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876357" y="58058051"/>
-          <a:ext cx="474363" cy="3159125"/>
+          <a:off x="5879532" y="58356501"/>
+          <a:ext cx="474363" cy="3165475"/>
           <a:chOff x="8959665" y="2585803"/>
           <a:chExt cx="463443" cy="3651126"/>
         </a:xfrm>
@@ -40427,15 +40589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>183175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113079</xdr:rowOff>
+      <xdr:colOff>116500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>669926</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>94274</xdr:rowOff>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41069,8 +41231,8 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41160,7 +41322,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="89">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="C14" s="90" t="s">
         <v>350</v>
@@ -42469,61 +42631,61 @@
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="269" t="str">
+      <c r="C6" s="266" t="str">
         <f>$O$8</f>
         <v>Anfangs-Geschwindigkeit</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="273" t="str">
+      <c r="D6" s="267"/>
+      <c r="E6" s="270" t="str">
         <f>$O$9</f>
         <v>Geschwindigkeit</v>
       </c>
-      <c r="F6" s="270"/>
-      <c r="G6" s="273" t="str">
+      <c r="F6" s="267"/>
+      <c r="G6" s="270" t="str">
         <f>$O$10</f>
         <v>Strecke</v>
       </c>
-      <c r="H6" s="270"/>
-      <c r="I6" s="273" t="str">
+      <c r="H6" s="267"/>
+      <c r="I6" s="270" t="str">
         <f>$O$11</f>
         <v>Zeit</v>
       </c>
-      <c r="J6" s="270"/>
-      <c r="K6" s="273" t="str">
+      <c r="J6" s="267"/>
+      <c r="K6" s="270" t="str">
         <f>$O$12</f>
         <v>Beschleunigung</v>
       </c>
-      <c r="L6" s="274"/>
+      <c r="L6" s="271"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="271" t="str">
+      <c r="C7" s="268" t="str">
         <f>$P$8</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="272"/>
-      <c r="E7" s="275" t="str">
+      <c r="D7" s="269"/>
+      <c r="E7" s="272" t="str">
         <f>$P$9</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="272"/>
-      <c r="G7" s="275" t="str">
+      <c r="F7" s="269"/>
+      <c r="G7" s="272" t="str">
         <f>$P$10</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="272"/>
-      <c r="I7" s="275" t="str">
+      <c r="H7" s="269"/>
+      <c r="I7" s="272" t="str">
         <f>$P$11</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="272"/>
-      <c r="K7" s="275" t="str">
+      <c r="J7" s="269"/>
+      <c r="K7" s="272" t="str">
         <f>$P$12</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="276"/>
+      <c r="L7" s="273"/>
       <c r="O7" s="80"/>
       <c r="S7" s="63"/>
     </row>
@@ -42548,18 +42710,18 @@
         <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
         <v>24</v>
       </c>
-      <c r="G8" s="263">
+      <c r="G8" s="274">
         <v>119</v>
       </c>
-      <c r="H8" s="264"/>
-      <c r="I8" s="263">
+      <c r="H8" s="279"/>
+      <c r="I8" s="274">
         <v>7</v>
       </c>
-      <c r="J8" s="264"/>
-      <c r="K8" s="263">
+      <c r="J8" s="279"/>
+      <c r="K8" s="274">
         <v>2</v>
       </c>
-      <c r="L8" s="268"/>
+      <c r="L8" s="275"/>
       <c r="N8" s="86" t="s">
         <v>104</v>
       </c>
@@ -42590,10 +42752,10 @@
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="260">
+      <c r="E9" s="276">
         <v>24</v>
       </c>
-      <c r="F9" s="261"/>
+      <c r="F9" s="280"/>
       <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
@@ -42601,14 +42763,14 @@
         <f>E9*I9 - K9*I9^2/2</f>
         <v>119</v>
       </c>
-      <c r="I9" s="260">
+      <c r="I9" s="276">
         <v>7</v>
       </c>
-      <c r="J9" s="261"/>
-      <c r="K9" s="260">
+      <c r="J9" s="280"/>
+      <c r="K9" s="276">
         <v>2</v>
       </c>
-      <c r="L9" s="266"/>
+      <c r="L9" s="277"/>
       <c r="N9" s="86" t="s">
         <v>104</v>
       </c>
@@ -42639,14 +42801,14 @@
         <f>SQRT(E10^2 - 2*K10*G10)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="260">
+      <c r="E10" s="276">
         <v>24</v>
       </c>
-      <c r="F10" s="261"/>
-      <c r="G10" s="260">
+      <c r="F10" s="280"/>
+      <c r="G10" s="276">
         <v>119</v>
       </c>
-      <c r="H10" s="261"/>
+      <c r="H10" s="280"/>
       <c r="I10" s="31" t="s">
         <v>84</v>
       </c>
@@ -42654,10 +42816,10 @@
         <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
         <v>7</v>
       </c>
-      <c r="K10" s="260">
+      <c r="K10" s="276">
         <v>2</v>
       </c>
-      <c r="L10" s="266"/>
+      <c r="L10" s="277"/>
       <c r="N10" s="86" t="s">
         <v>104</v>
       </c>
@@ -42688,18 +42850,18 @@
         <f>2*G11/I11 - E11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="260">
+      <c r="E11" s="276">
         <v>24</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="260">
+      <c r="F11" s="280"/>
+      <c r="G11" s="276">
         <v>119</v>
       </c>
-      <c r="H11" s="261"/>
-      <c r="I11" s="260">
+      <c r="H11" s="280"/>
+      <c r="I11" s="276">
         <v>7</v>
       </c>
-      <c r="J11" s="261"/>
+      <c r="J11" s="280"/>
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
@@ -42730,10 +42892,10 @@
       <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="265">
+      <c r="C12" s="282">
         <v>10</v>
       </c>
-      <c r="D12" s="261"/>
+      <c r="D12" s="280"/>
       <c r="E12" s="32" t="s">
         <v>60</v>
       </c>
@@ -42748,14 +42910,14 @@
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="260">
+      <c r="I12" s="276">
         <v>7</v>
       </c>
-      <c r="J12" s="261"/>
-      <c r="K12" s="260">
+      <c r="J12" s="280"/>
+      <c r="K12" s="276">
         <v>2</v>
       </c>
-      <c r="L12" s="266"/>
+      <c r="L12" s="277"/>
       <c r="N12" s="86" t="s">
         <v>105</v>
       </c>
@@ -42782,10 +42944,10 @@
       <c r="B13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="265">
+      <c r="C13" s="282">
         <v>10</v>
       </c>
-      <c r="D13" s="261"/>
+      <c r="D13" s="280"/>
       <c r="E13" s="31" t="s">
         <v>88</v>
       </c>
@@ -42793,10 +42955,10 @@
         <f>SQRT(C13^2 + 2*K13*G13)</f>
         <v>24</v>
       </c>
-      <c r="G13" s="260">
+      <c r="G13" s="276">
         <v>119</v>
       </c>
-      <c r="H13" s="261"/>
+      <c r="H13" s="280"/>
       <c r="I13" s="37" t="s">
         <v>62</v>
       </c>
@@ -42804,10 +42966,10 @@
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="258">
+      <c r="K13" s="278">
         <v>2</v>
       </c>
-      <c r="L13" s="266"/>
+      <c r="L13" s="277"/>
       <c r="O13" s="80" t="s">
         <v>97</v>
       </c>
@@ -42822,10 +42984,10 @@
       <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="265">
+      <c r="C14" s="282">
         <v>10</v>
       </c>
-      <c r="D14" s="261"/>
+      <c r="D14" s="280"/>
       <c r="E14" s="31" t="s">
         <v>89</v>
       </c>
@@ -42833,14 +42995,14 @@
         <f>2*G14/I14 - C14</f>
         <v>24</v>
       </c>
-      <c r="G14" s="260">
+      <c r="G14" s="276">
         <v>119</v>
       </c>
-      <c r="H14" s="261"/>
-      <c r="I14" s="260">
+      <c r="H14" s="280"/>
+      <c r="I14" s="276">
         <v>7</v>
       </c>
-      <c r="J14" s="267"/>
+      <c r="J14" s="281"/>
       <c r="K14" s="87" t="s">
         <v>61</v>
       </c>
@@ -42862,14 +43024,14 @@
       <c r="B15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="265">
+      <c r="C15" s="282">
         <v>10</v>
       </c>
-      <c r="D15" s="261"/>
-      <c r="E15" s="260">
+      <c r="D15" s="280"/>
+      <c r="E15" s="276">
         <v>24</v>
       </c>
-      <c r="F15" s="261"/>
+      <c r="F15" s="280"/>
       <c r="G15" s="31" t="s">
         <v>90</v>
       </c>
@@ -42884,10 +43046,10 @@
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="260">
+      <c r="K15" s="276">
         <v>2</v>
       </c>
-      <c r="L15" s="266"/>
+      <c r="L15" s="277"/>
       <c r="O15" s="80" t="s">
         <v>99</v>
       </c>
@@ -42902,14 +43064,14 @@
       <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="265">
+      <c r="C16" s="282">
         <v>10</v>
       </c>
-      <c r="D16" s="261"/>
-      <c r="E16" s="260">
+      <c r="D16" s="280"/>
+      <c r="E16" s="276">
         <v>24</v>
       </c>
-      <c r="F16" s="261"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="31" t="s">
         <v>91</v>
       </c>
@@ -42917,10 +43079,10 @@
         <f>(C16+E16)*I16/2</f>
         <v>119</v>
       </c>
-      <c r="I16" s="260">
+      <c r="I16" s="276">
         <v>7</v>
       </c>
-      <c r="J16" s="261"/>
+      <c r="J16" s="280"/>
       <c r="K16" s="78" t="s">
         <v>58</v>
       </c>
@@ -42942,18 +43104,18 @@
       <c r="B17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="262">
+      <c r="C17" s="284">
         <v>10</v>
       </c>
-      <c r="D17" s="259"/>
-      <c r="E17" s="258">
+      <c r="D17" s="283"/>
+      <c r="E17" s="278">
         <v>24</v>
       </c>
-      <c r="F17" s="259"/>
-      <c r="G17" s="258">
+      <c r="F17" s="283"/>
+      <c r="G17" s="278">
         <v>119</v>
       </c>
-      <c r="H17" s="259"/>
+      <c r="H17" s="283"/>
       <c r="I17" s="83" t="s">
         <v>92</v>
       </c>
@@ -42979,71 +43141,91 @@
       <c r="B18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="277" t="str">
+      <c r="C18" s="262" t="str">
         <f>P13</f>
         <v>ω0 [rad/s]</v>
       </c>
-      <c r="D18" s="278"/>
-      <c r="E18" s="279" t="str">
+      <c r="D18" s="263"/>
+      <c r="E18" s="264" t="str">
         <f>P14</f>
         <v>ω [rad/s]</v>
       </c>
-      <c r="F18" s="278"/>
-      <c r="G18" s="279" t="str">
+      <c r="F18" s="263"/>
+      <c r="G18" s="264" t="str">
         <f>P15</f>
         <v>φ [rad]</v>
       </c>
-      <c r="H18" s="278"/>
-      <c r="I18" s="279" t="str">
+      <c r="H18" s="263"/>
+      <c r="I18" s="264" t="str">
         <f>P16</f>
         <v>t [s]</v>
       </c>
-      <c r="J18" s="278"/>
-      <c r="K18" s="279" t="str">
+      <c r="J18" s="263"/>
+      <c r="K18" s="264" t="str">
         <f>P17</f>
         <v>α [rad/s2]</v>
       </c>
-      <c r="L18" s="280"/>
+      <c r="L18" s="265"/>
     </row>
     <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="281" t="str">
+      <c r="C19" s="258" t="str">
         <f>O13</f>
         <v>Anfangs-Winkelgeschwindigkeit</v>
       </c>
-      <c r="D19" s="282"/>
-      <c r="E19" s="283" t="str">
+      <c r="D19" s="259"/>
+      <c r="E19" s="260" t="str">
         <f>O14</f>
         <v>Winkelgeschwindigkeit</v>
       </c>
-      <c r="F19" s="282"/>
-      <c r="G19" s="283" t="str">
+      <c r="F19" s="259"/>
+      <c r="G19" s="260" t="str">
         <f>O15</f>
         <v>Winkel</v>
       </c>
-      <c r="H19" s="282"/>
-      <c r="I19" s="283" t="str">
+      <c r="H19" s="259"/>
+      <c r="I19" s="260" t="str">
         <f>O16</f>
         <v>Zeit</v>
       </c>
-      <c r="J19" s="282"/>
-      <c r="K19" s="283" t="str">
+      <c r="J19" s="259"/>
+      <c r="K19" s="260" t="str">
         <f>O17</f>
         <v>Winkelbeschleunigung</v>
       </c>
-      <c r="L19" s="284"/>
+      <c r="L19" s="261"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K6:L6"/>
@@ -43054,36 +43236,16 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
@@ -52932,8 +53094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89928866-E643-498C-AE8F-3008A8B56B76}">
   <dimension ref="B1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53158,19 +53320,19 @@
       </c>
       <c r="P15" s="242"/>
       <c r="Q15" s="243">
-        <f>MAX(ABS(O15),ABS(M16),ABS(O16),ABS(M15))</f>
-        <v>7.6604444311897799</v>
+        <f>MAX(ABS(O15),ABS(M16),ABS(O16),ABS(M15),ABS(M17),ABS(O17))</f>
+        <v>12.660444431189781</v>
       </c>
       <c r="R15" s="241">
         <f>Q16</f>
-        <v>8.4264888743087578</v>
+        <v>13.92648887430876</v>
       </c>
       <c r="S15" s="241">
         <v>0</v>
       </c>
       <c r="T15" s="241">
         <f>-R15</f>
-        <v>-8.4264888743087578</v>
+        <v>-13.92648887430876</v>
       </c>
       <c r="U15" s="241">
         <v>0</v>
@@ -53182,11 +53344,11 @@
       </c>
       <c r="C16" s="233">
         <f>SQRT(H16^2+I16^2)</f>
-        <v>5</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="D16" s="233">
         <f>F16*180/PI()</f>
-        <v>90</v>
+        <v>78.690067525979785</v>
       </c>
       <c r="E16" s="93" t="str">
         <f>M6</f>
@@ -53194,14 +53356,14 @@
       </c>
       <c r="F16" s="233">
         <f>ATAN2(H16,I16)</f>
-        <v>1.5707963267948966</v>
+        <v>1.3734007669450159</v>
       </c>
       <c r="G16" s="93" t="str">
         <f>M7</f>
         <v>rad</v>
       </c>
       <c r="H16" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="94">
         <v>5</v>
@@ -53211,7 +53373,7 @@
       </c>
       <c r="M16" s="241">
         <f>H16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="241">
         <v>0</v>
@@ -53223,23 +53385,102 @@
       <c r="P16" s="242"/>
       <c r="Q16" s="243">
         <f>Q15*1.1</f>
-        <v>8.4264888743087578</v>
+        <v>13.92648887430876</v>
       </c>
       <c r="R16" s="241">
         <v>0</v>
       </c>
       <c r="S16" s="241">
         <f>R15</f>
-        <v>8.4264888743087578</v>
+        <v>13.92648887430876</v>
       </c>
       <c r="T16" s="241">
         <v>0</v>
       </c>
       <c r="U16" s="241">
         <f>T15</f>
-        <v>-8.4264888743087578</v>
+        <v>-13.92648887430876</v>
       </c>
     </row>
+    <row r="17" spans="2:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="289" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="233">
+        <f>SQRT(H17^2+I17^2)</f>
+        <v>13.774929840771133</v>
+      </c>
+      <c r="D17" s="233">
+        <f>F17*180/PI()</f>
+        <v>113.20612717422607</v>
+      </c>
+      <c r="E17" s="93" t="str">
+        <f>E16</f>
+        <v>°</v>
+      </c>
+      <c r="F17" s="233">
+        <f>ATAN2(H17,I17)</f>
+        <v>1.9758196526216694</v>
+      </c>
+      <c r="G17" s="93" t="str">
+        <f>G16</f>
+        <v>rad</v>
+      </c>
+      <c r="H17" s="233">
+        <f>H16+H15</f>
+        <v>-5.4278760968653934</v>
+      </c>
+      <c r="I17" s="233">
+        <f>I16+I15</f>
+        <v>12.660444431189781</v>
+      </c>
+      <c r="L17" s="241">
+        <v>0</v>
+      </c>
+      <c r="M17" s="241">
+        <f>H17</f>
+        <v>-5.4278760968653934</v>
+      </c>
+      <c r="N17" s="241">
+        <v>0</v>
+      </c>
+      <c r="O17" s="241">
+        <f>I17</f>
+        <v>12.660444431189781</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="96">
+        <f>C16*C15</f>
+        <v>50.990195135927848</v>
+      </c>
+      <c r="D18" s="233">
+        <f>D16+D15</f>
+        <v>208.69006752597977</v>
+      </c>
+      <c r="E18" s="93" t="str">
+        <f>E17</f>
+        <v>°</v>
+      </c>
+      <c r="F18" s="233">
+        <f>F15+F16</f>
+        <v>3.6423287945376446</v>
+      </c>
+      <c r="G18" s="93" t="str">
+        <f>G17</f>
+        <v>rad</v>
+      </c>
+      <c r="H18" s="233">
+        <v>0</v>
+      </c>
+      <c r="I18" s="233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>447</v>
@@ -53272,6 +53513,7 @@
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="Q13:U13"/>
   </mergeCells>
+  <phoneticPr fontId="37" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 D6 D8" xr:uid="{3E8D84A8-7919-4823-9635-E5BE173BBAF1}">
       <formula1>$M$6:$M$7</formula1>
@@ -53319,7 +53561,7 @@
       </c>
       <c r="J2" s="111">
         <f ca="1">NOW()</f>
-        <v>45821.49429884259</v>
+        <v>45823.906093634258</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.6">
